--- a/biology/Médecine/Hôpital_Montfort/Hôpital_Montfort.xlsx
+++ b/biology/Médecine/Hôpital_Montfort/Hôpital_Montfort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Montfort</t>
+          <t>Hôpital_Montfort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Hôpital Montfort est l'hôpital universitaire francophone de l'Ontario, offrant des soins exemplaires centrés sur la personne. Montfort dessert, dans les deux langues officielles, plus de 1,2 million de personnes dans la région de l’Est ontarien. Montfort a reçu un agrément avec mention d'honneur décerné par Agrément Canada en 2014 et en 2018, et il s’est mérité la désignation d’organisme vedette en pratiques exemplaires, décernée par l’Association des infirmières et infirmiers autorisés de l’Ontario.
 Avec l'appui de l'Institut du savoir Montfort (ISM) et en collaboration avec ses partenaires principaux, l'Université d'Ottawa et le collège La Cité ainsi que d’autres programmes d'études post-secondaires, Montfort prépare la relève en santé en français. En 2015, il s’est joint au palmarès des 40 principaux hôpitaux de recherche au Canada, grâce aux activités de l’ISM-Recherche. .
-L’équipe de haute gestion est menée par le président-directeur général, Dr Bernard Leduc[1]. L’équipe médicale, quant à elle, relève du médecin-chef, Dr Thierry Daboval[2]. Le président du conseil d’administration est M. Carl Nappert[3].
-L’Hôpital Montfort a ouvert ses portes en 1953[4]. 
+L’équipe de haute gestion est menée par le président-directeur général, Dr Bernard Leduc. L’équipe médicale, quant à elle, relève du médecin-chef, Dr Thierry Daboval. Le président du conseil d’administration est M. Carl Nappert.
+L’Hôpital Montfort a ouvert ses portes en 1953. 
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Montfort</t>
+          <t>Hôpital_Montfort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>L'Hôpital Montfort en chiffres (2023)[5]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plus de 1 800 employés et plus de 400 médecins
 Plus de 400 bénévoles et 45 000 heures de bénévolat par année
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Montfort</t>
+          <t>Hôpital_Montfort</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Montfort offre un large éventail de soins et de services, dont le service d’urgence, de chirurgie, le programme de santé mentale ainsi que le Centre familial de naissance[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Montfort offre un large éventail de soins et de services, dont le service d’urgence, de chirurgie, le programme de santé mentale ainsi que le Centre familial de naissance.
 Cardiologie
 Cardiovasculaire et pulmonaire
 Centre familial de naissance
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Montfort</t>
+          <t>Hôpital_Montfort</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,23 +614,129 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L’hôpital, appelé à l’époque Hôpital Saint-Louis-Marie-de-Montfort, est fondé en 1953. Il est géré par la congrégation des Filles de la Sagesse jusqu’en 1969[4]. Considéré comme un hôpital des plus modernes, on y retrouve, au départ, un service d’urgence, de chirurgie, de radiologie, un laboratoire, 200 lits pour adultes et 50 lits pour enfants. En adoptant une approche humaniste, l’hôpital s’est rapidement taillé une place de choix au sein de la communauté[7].
-L’hôpital devient laïque et public en 1970. Plusieurs projets contribuent, au cours des années suivantes, à moderniser l’hôpital et à élargir la gamme de services qui y sont offerts. Les départements de psychiatrie et d’orthopédie, l’unité des soins intensifs, les services cardio-respiratoires et d’électroencéphalographie sont inaugurés au cours des années 1970. Le Centre de soins de longue durée Montfort, anciennement le Pavillon de la Sagesse, situé derrière l’hôpital, accueille ses premiers résidents en 1978. Le service de soins palliatifs est créé quelques années plus tard. En 1992, l’aile sud (aujourd’hui aile A) est inaugurée. Elle abrite plusieurs services, dont l’urgence, le bloc opératoire et une nouvelle unité de soins infirmiers[7].
- La même année, l’Hôpital signe une entente avec l’Université d’Ottawa[7]. L’affiliation entre la Faculté de médecine et Montfort porte sur l’enseignement clinique de la médecine familiale dans un environnement francophone.
-SOS Montfort
-En 1997, la Commission de restructuration des services de santé de l’Ontario recommande la fermeture de l’hôpital. La population se mobilise immédiatement et crée le mouvement SOS Montfort, mené par Gisèle Lalonde. Ci-dessous se trouvent quelques dates importantes de la période SOS Montfort[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hôpital, appelé à l’époque Hôpital Saint-Louis-Marie-de-Montfort, est fondé en 1953. Il est géré par la congrégation des Filles de la Sagesse jusqu’en 1969. Considéré comme un hôpital des plus modernes, on y retrouve, au départ, un service d’urgence, de chirurgie, de radiologie, un laboratoire, 200 lits pour adultes et 50 lits pour enfants. En adoptant une approche humaniste, l’hôpital s’est rapidement taillé une place de choix au sein de la communauté.
+L’hôpital devient laïque et public en 1970. Plusieurs projets contribuent, au cours des années suivantes, à moderniser l’hôpital et à élargir la gamme de services qui y sont offerts. Les départements de psychiatrie et d’orthopédie, l’unité des soins intensifs, les services cardio-respiratoires et d’électroencéphalographie sont inaugurés au cours des années 1970. Le Centre de soins de longue durée Montfort, anciennement le Pavillon de la Sagesse, situé derrière l’hôpital, accueille ses premiers résidents en 1978. Le service de soins palliatifs est créé quelques années plus tard. En 1992, l’aile sud (aujourd’hui aile A) est inaugurée. Elle abrite plusieurs services, dont l’urgence, le bloc opératoire et une nouvelle unité de soins infirmiers.
+ La même année, l’Hôpital signe une entente avec l’Université d’Ottawa. L’affiliation entre la Faculté de médecine et Montfort porte sur l’enseignement clinique de la médecine familiale dans un environnement francophone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_Montfort</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SOS Montfort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1997, la Commission de restructuration des services de santé de l’Ontario recommande la fermeture de l’hôpital. La population se mobilise immédiatement et crée le mouvement SOS Montfort, mené par Gisèle Lalonde. Ci-dessous se trouvent quelques dates importantes de la période SOS Montfort.
 1997 : La Commission de restructuration des services de santé de l’Ontario recommande la fermeture de l’hôpital (24 février)
 1997 : Mise sur pied du Mouvement SOS Montfort (25 février)
 1997 : Grand ralliement au Centre municipal d’Ottawa. 10 000 manifestants y sont présents
 1998 : SOS Montfort et l’hôpital annoncent qu’ils intentent un recours en justice pour faire annuler les directives de fermer l’hôpital par la Commission de restructuration des services de santé de l’Ontario (28 juillet)
 1999 : La Cour divisionnaire de l’Ontario ordonne que l’hôpital reste ouvert (29 novembre)
-2001 : Victoire de l’hôpital en Cour d’appel de l’Ontario contre la Commission de restructuration des services de santé de l’Ontario ; l’hôpital va rester ouvert (7 décembre)
-Le Nouveau Montfort
-Depuis 2010, l’hôpital Montfort comprend trois nouvelles ailes qui s’ajoutent aux deux ailes originales, qui furent complètement rénovées. La superficie totale de l’hôpital fut plus que doublée, passant de 300 000 à 750 000 pieds carrés. Ce projet permet d’offrir davantage de soins et de services à un plus grand nombre de patients. Le Nouveau Montfort est officiellement inauguré le 11 juin 2010[7].
-Dates importantes [7]
-1953 : Ouverture et inauguration officielle de l’hôpital et naissance du premier bébé. (11 octobre)
+2001 : Victoire de l’hôpital en Cour d’appel de l’Ontario contre la Commission de restructuration des services de santé de l’Ontario ; l’hôpital va rester ouvert (7 décembre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_Montfort</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Nouveau Montfort</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2010, l’hôpital Montfort comprend trois nouvelles ailes qui s’ajoutent aux deux ailes originales, qui furent complètement rénovées. La superficie totale de l’hôpital fut plus que doublée, passant de 300 000 à 750 000 pieds carrés. Ce projet permet d’offrir davantage de soins et de services à un plus grand nombre de patients. Le Nouveau Montfort est officiellement inauguré le 11 juin 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_Montfort</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dates importantes [7]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1953 : Ouverture et inauguration officielle de l’hôpital et naissance du premier bébé. (11 octobre)
 1954 : Accueil des premiers résidents et stagiaires de l’Université d’Ottawa
 1956 : Mise sur pied du comité des Dames auxiliaires (comité dissous au début des années 1970)
 1956 : Ouverture de l’École d’Infirmières Montfort (septembre); ouverte jusqu’en 1971
@@ -632,97 +754,103 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Montfort</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hôpital_Montfort</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Partenaire de l’hôpital depuis 1986, la Fondation de l’Hôpital Montfort soutient les orientations stratégiques de développement de l’hôpital, afin de mieux répondre aux besoins de ses patients[8]. Au fil des ans, plusieurs campagnes d’envergure ont eu lieu : « Cordialement Vôtre », le Fonds de la résistance SOS Montfort, « Construire ensemble une institution unique », « Pour toi, mon cœur ». La Fondation compte aussi de multiples donateurs : grand public, organismes communautaires, entreprises, fondations charitables et regroupements religieux. Parmi les programmes de la Fondation, il y a les Anges de l’Hôpital Montfort, le Club des nouveau-nés et le programme de sollicitation par publipostage.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partenaire de l’hôpital depuis 1986, la Fondation de l’Hôpital Montfort soutient les orientations stratégiques de développement de l’hôpital, afin de mieux répondre aux besoins de ses patients. Au fil des ans, plusieurs campagnes d’envergure ont eu lieu : « Cordialement Vôtre », le Fonds de la résistance SOS Montfort, « Construire ensemble une institution unique », « Pour toi, mon cœur ». La Fondation compte aussi de multiples donateurs : grand public, organismes communautaires, entreprises, fondations charitables et regroupements religieux. Parmi les programmes de la Fondation, il y a les Anges de l’Hôpital Montfort, le Club des nouveau-nés et le programme de sollicitation par publipostage.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Montfort</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hôpital_Montfort</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bénévoles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Association des bénévoles compte plus de 300 membres qui offrent environ 60 000 heures de bénévolat par année à l’hôpital. Les bénévoles font partie intégrante de l’hôpital et contribuent à augmenter significativement la qualité des services offerts aux patients[9].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association des bénévoles compte plus de 300 membres qui offrent environ 60 000 heures de bénévolat par année à l’hôpital. Les bénévoles font partie intégrante de l’hôpital et contribuent à augmenter significativement la qualité des services offerts aux patients.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Montfort</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hôpital_Montfort</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Montfort</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Recherche et éducation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>L’Institut du Savoir Montfort (ISM) est l’un des deux seuls instituts hospitaliers de l’Ontario – et le seul francophone – associant directement la recherche et l’éducation. 
-De 2012 à 2016, les fonctions de recherche de l'Hôpital Montfort étaient assumées par l'Institut de recherche de l'Hôpital Montfort (IRHM), maintenant connu comme ISM - Recherche. L'ISM - Recherche a pour objectif d’élaborer et de réaliser des programmes de recherche novateurs visant à contribuer à améliorer la qualité des soins de santé, en particulier auprès des populations francophones en situation minoritaire. Les priorités de recherche de l’ISM - Recherche s’articulent autour des domaines de la santé mentale, des soins primaires, de la nutrition et du métabolisme et de la santé des familles[10].
-L’Hôpital Montfort est affilié à l’Université d’Ottawa; c'est le seul établissement de santé en Ontario qui offre une formation clinique dans un environnement francophone et ce, sous la supervision de l'ISM. La composante éducationnelle de l’hôpital se traduit par la réalisation de stages et d’activités d’enseignement dans le cadre de plusieurs programmes collégiaux et universitaires, dont la médecine, les soins infirmiers et la réadaptation. Elle se traduit aussi par la formation continue en français des professionnels de la santé[11].</t>
+De 2012 à 2016, les fonctions de recherche de l'Hôpital Montfort étaient assumées par l'Institut de recherche de l'Hôpital Montfort (IRHM), maintenant connu comme ISM - Recherche. L'ISM - Recherche a pour objectif d’élaborer et de réaliser des programmes de recherche novateurs visant à contribuer à améliorer la qualité des soins de santé, en particulier auprès des populations francophones en situation minoritaire. Les priorités de recherche de l’ISM - Recherche s’articulent autour des domaines de la santé mentale, des soins primaires, de la nutrition et du métabolisme et de la santé des familles.
+L’Hôpital Montfort est affilié à l’Université d’Ottawa; c'est le seul établissement de santé en Ontario qui offre une formation clinique dans un environnement francophone et ce, sous la supervision de l'ISM. La composante éducationnelle de l’hôpital se traduit par la réalisation de stages et d’activités d’enseignement dans le cadre de plusieurs programmes collégiaux et universitaires, dont la médecine, les soins infirmiers et la réadaptation. Elle se traduit aussi par la formation continue en français des professionnels de la santé.</t>
         </is>
       </c>
     </row>
